--- a/BulkImport/MysoftDemo.xlsx
+++ b/BulkImport/MysoftDemo.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="77">
   <si>
     <t xml:space="preserve">Starting JackID </t>
   </si>
@@ -255,6 +255,18 @@
   </si>
   <si>
     <t>G022323B1-D, PG112204</t>
+  </si>
+  <si>
+    <t>WIRELESS-AP-INDOOR</t>
+  </si>
+  <si>
+    <t>E520050B18-DW, PG103005</t>
+  </si>
+  <si>
+    <t>E520050B1-D, PG109790</t>
+  </si>
+  <si>
+    <t>A120353B1-DW, PG103005</t>
   </si>
 </sst>
 </file>
@@ -1164,10 +1176,12 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1"/>
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
@@ -1176,10 +1190,12 @@
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1"/>
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
@@ -1190,40 +1206,52 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1"/>
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="1"/>
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="1"/>
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="1"/>
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="1"/>
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
